--- a/schedule/Fordham Hockey Scoreboard.xlsx
+++ b/schedule/Fordham Hockey Scoreboard.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5111" uniqueCount="487">
   <si>
     <t>Overall Record:</t>
   </si>
@@ -186,16 +186,16 @@
     <t>FEB</t>
   </si>
   <si>
+    <t>@ Hofstra</t>
+  </si>
+  <si>
+    <t>Freeport Arena / Freeport, NY</t>
+  </si>
+  <si>
+    <t>@ Stony Brook</t>
+  </si>
+  <si>
     <t>Farmingdale</t>
-  </si>
-  <si>
-    <t>@ Hofstra</t>
-  </si>
-  <si>
-    <t>Freeport Arena / Freeport, NY</t>
-  </si>
-  <si>
-    <t>@ Stony Brook</t>
   </si>
   <si>
     <t>Ramapo</t>
@@ -3048,7 +3048,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3076,7 +3076,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3104,7 +3104,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3132,7 +3132,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3160,7 +3160,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3188,7 +3188,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3216,7 +3216,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3238,13 +3238,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image18.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3272,7 +3272,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3300,7 +3300,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3328,7 +3328,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3356,7 +3356,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3378,13 +3378,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3412,7 +3412,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image18.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3440,7 +3440,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3468,7 +3468,7 @@
     <xdr:ext cx="533400" cy="390525"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image15.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3496,7 +3496,7 @@
     <xdr:ext cx="381000" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3524,7 +3524,7 @@
     <xdr:ext cx="476250" cy="457200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3552,7 +3552,7 @@
     <xdr:ext cx="476250" cy="457200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image7.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3669,7 +3669,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image16.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3697,7 +3697,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image17.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3725,7 +3725,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image14.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3753,7 +3753,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3781,7 +3781,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3809,7 +3809,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image19.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3837,7 +3837,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image8.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3865,7 +3865,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3893,7 +3893,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3921,7 +3921,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3949,7 +3949,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image20.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3977,7 +3977,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4005,7 +4005,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4033,7 +4033,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image21.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4061,7 +4061,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image25.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4089,7 +4089,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image28.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4117,7 +4117,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image26.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4145,7 +4145,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image27.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4173,7 +4173,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image31.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image32.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4201,7 +4201,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image30.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4257,7 +4257,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image18.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4285,7 +4285,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4313,7 +4313,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image30.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4369,7 +4369,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image22.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4397,7 +4397,7 @@
     <xdr:ext cx="533400" cy="428625"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image24.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4425,7 +4425,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image32.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image31.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4453,7 +4453,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.jpg" title="Image"/>
+        <xdr:cNvPr id="0" name="image29.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4481,7 +4481,7 @@
     <xdr:ext cx="533400" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4604,7 +4604,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="str">
         <f>COUNTIF(E11:E100,"W")&amp;"-"&amp;COUNTIF(E11:E100,"L")&amp;"-"&amp;COUNTIF(E11:E100,"T")&amp;"-"&amp;COUNTIF(E11:E100,"OTL")</f>
-        <v>4-8-1-1</v>
+        <v>4-9-1-1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="C2" s="8" t="str">
         <f>COUNTIF(G11:G84,"W")&amp;"-"&amp;COUNTIF(G11:G84,"L")&amp;"-"&amp;COUNTIF(G11:G84,"T")&amp;"-"&amp;COUNTIF(G11:G84,"OTL")</f>
-        <v>3-5-0-1</v>
+        <v>3-6-0-1</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="5"/>
@@ -5325,33 +5325,43 @@
       <c r="A57" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+      <c r="B57" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="22">
+        <v>3.0</v>
+      </c>
+      <c r="D57" s="22">
+        <v>6.0</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="28" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="64">
-        <v>4.0</v>
-      </c>
-      <c r="B58" s="41" t="s">
+      <c r="A58" s="29">
+        <v>6.0</v>
+      </c>
+      <c r="B58" s="33" t="s">
         <v>44</v>
       </c>
       <c r="E58" s="9"/>
-      <c r="F58" s="28"/>
+      <c r="F58" s="24"/>
       <c r="G58" s="28"/>
     </row>
     <row r="59">
       <c r="A59" s="37"/>
       <c r="B59" s="32" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="28"/>
+      <c r="F59" s="24"/>
       <c r="G59" s="28"/>
     </row>
     <row r="60">
@@ -5367,10 +5377,10 @@
     </row>
     <row r="61">
       <c r="A61" s="29">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="24"/>
@@ -5379,7 +5389,7 @@
     <row r="62">
       <c r="A62" s="37"/>
       <c r="B62" s="32" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -5395,18 +5405,18 @@
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
-      <c r="F63" s="24"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="29">
-        <v>11.0</v>
-      </c>
-      <c r="B64" s="33" t="s">
+      <c r="A64" s="64">
+        <v>12.0</v>
+      </c>
+      <c r="B64" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E64" s="9"/>
-      <c r="F64" s="24"/>
+      <c r="F64" s="28"/>
       <c r="G64" s="28"/>
     </row>
     <row r="65">
@@ -5417,7 +5427,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="24"/>
+      <c r="F65" s="28"/>
       <c r="G65" s="28"/>
     </row>
     <row r="66">
@@ -5765,11 +5775,11 @@
       <c r="B101" s="2"/>
       <c r="C101" s="76">
         <f t="shared" ref="C101:D101" si="1">SUM(C11:C100)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D101" s="76">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E101" s="77"/>
       <c r="F101" s="5"/>
@@ -5790,6 +5800,13 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B76:E76"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="A80:E80"/>
@@ -5811,15 +5828,6 @@
     <mergeCell ref="A93:E93"/>
     <mergeCell ref="B95:E95"/>
     <mergeCell ref="A96:E96"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B76:E76"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
@@ -5862,11 +5870,13 @@
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="B59:E59"/>
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B67:E67"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B11"/>
@@ -5877,8 +5887,9 @@
     <hyperlink r:id="rId6" ref="B44"/>
     <hyperlink r:id="rId7" ref="B51"/>
     <hyperlink r:id="rId8" ref="B54"/>
+    <hyperlink r:id="rId9" ref="B57"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -6654,7 +6665,7 @@
         <v>2.0</v>
       </c>
       <c r="C34" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="245" t="s">
         <v>256</v>
@@ -7342,7 +7353,7 @@
         <v>2.0</v>
       </c>
       <c r="C25" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="245" t="s">
         <v>267</v>
@@ -8088,7 +8099,7 @@
         <v>23.0</v>
       </c>
       <c r="C19" s="227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="177" t="s">
         <v>256</v>
@@ -9242,7 +9253,7 @@
         <v>29.0</v>
       </c>
       <c r="C27" s="227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="177" t="s">
         <v>256</v>
@@ -9822,7 +9833,7 @@
         <v>14.0</v>
       </c>
       <c r="C17" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="245" t="s">
         <v>256</v>
@@ -10452,7 +10463,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="245" t="s">
         <v>309</v>
@@ -11487,7 +11498,7 @@
         <v>3.0</v>
       </c>
       <c r="C26" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="245" t="s">
         <v>315</v>
@@ -12810,7 +12821,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="245" t="s">
         <v>348</v>
@@ -13812,7 +13823,7 @@
         <v>24.0</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="245" t="s">
         <v>348</v>
@@ -14361,7 +14372,7 @@
         <v>26.0</v>
       </c>
       <c r="C11" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="245" t="s">
         <v>348</v>
@@ -15161,7 +15172,7 @@
         <v>18.0</v>
       </c>
       <c r="C15" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="245" t="s">
         <v>348</v>
@@ -16636,7 +16647,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="244" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="245" t="s">
         <v>348</v>
@@ -16852,7 +16863,7 @@
         <v>18.0</v>
       </c>
       <c r="C24" s="327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>348</v>
@@ -17222,7 +17233,7 @@
         <v>15.0</v>
       </c>
       <c r="C14" s="244" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="245" t="s">
         <v>348</v>
@@ -17831,7 +17842,7 @@
         <v>9.0</v>
       </c>
       <c r="C13" s="244" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="245" t="s">
         <v>390</v>
@@ -19498,7 +19509,7 @@
         <v>9.0</v>
       </c>
       <c r="C20" s="327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>409</v>
@@ -20107,7 +20118,7 @@
         <v>3.0</v>
       </c>
       <c r="C15" s="327" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>348</v>
@@ -20350,7 +20361,7 @@
         <v>28.0</v>
       </c>
       <c r="C24" s="327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>348</v>
@@ -20932,7 +20943,7 @@
         <v>22.0</v>
       </c>
       <c r="C18" s="327" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>348</v>
@@ -21040,7 +21051,7 @@
         <v>16.0</v>
       </c>
       <c r="C22" s="327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>348</v>
@@ -21701,7 +21712,7 @@
     <row r="34">
       <c r="A34" s="31"/>
       <c r="B34" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -21954,7 +21965,7 @@
         <v>15.0</v>
       </c>
       <c r="B51" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="36"/>
@@ -22145,7 +22156,7 @@
         <v>6.0</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="24"/>
@@ -22224,7 +22235,7 @@
         <v>24.0</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="24"/>
@@ -23313,7 +23324,7 @@
         <v>12.0</v>
       </c>
       <c r="C17" s="327" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>348</v>
@@ -23529,7 +23540,7 @@
         <v>17.0</v>
       </c>
       <c r="C25" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="245" t="s">
         <v>348</v>
@@ -24242,7 +24253,7 @@
         <v>17.0</v>
       </c>
       <c r="C25" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="245" t="s">
         <v>348</v>
@@ -24377,7 +24388,7 @@
         <v>8.0</v>
       </c>
       <c r="C30" s="258" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="257" t="s">
         <v>348</v>
@@ -24799,7 +24810,7 @@
         <v>5.0</v>
       </c>
       <c r="C17" s="327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>348</v>
@@ -26011,7 +26022,7 @@
         <v>2.0</v>
       </c>
       <c r="C32" s="258" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="257" t="s">
         <v>348</v>
@@ -26300,7 +26311,7 @@
         <v>14.0</v>
       </c>
       <c r="C8" s="365" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="364" t="s">
         <v>348</v>
@@ -26483,7 +26494,7 @@
         <v>18.0</v>
       </c>
       <c r="C15" s="327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>348</v>
@@ -27281,7 +27292,7 @@
         <v>4.0</v>
       </c>
       <c r="C16" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="245" t="s">
         <v>348</v>
@@ -27362,7 +27373,7 @@
         <v>22.0</v>
       </c>
       <c r="C19" s="327" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>348</v>
@@ -27942,7 +27953,7 @@
         <v>12.0</v>
       </c>
       <c r="C13" s="244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="245" t="s">
         <v>348</v>
@@ -29010,7 +29021,7 @@
         <v>20.0</v>
       </c>
       <c r="C23" s="327" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>348</v>
@@ -31266,7 +31277,7 @@
         <v>1.0</v>
       </c>
       <c r="B53" s="122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="122">
         <v>6.0</v>
@@ -31501,7 +31512,7 @@
     </row>
     <row r="70">
       <c r="A70" s="116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="24"/>
@@ -33253,7 +33264,7 @@
         <v>28.0</v>
       </c>
       <c r="C27" s="258" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="257" t="s">
         <v>348</v>
@@ -33538,7 +33549,7 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="369" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="368" t="s">
         <v>348</v>
@@ -34487,7 +34498,7 @@
         <v>13.0</v>
       </c>
       <c r="C18" s="101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>19</v>
@@ -35902,7 +35913,7 @@
         <v>4.0</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>19</v>
@@ -36429,7 +36440,7 @@
         <v>30.0</v>
       </c>
       <c r="C19" s="101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>19</v>
@@ -38055,7 +38066,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="254" t="s">
         <v>219</v>
